--- a/Code/Results/Cases/Case_7_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.83475969732446</v>
+        <v>11.97733776779853</v>
       </c>
       <c r="C2">
-        <v>11.65959161867578</v>
+        <v>6.134657493739044</v>
       </c>
       <c r="D2">
-        <v>10.04581086326578</v>
+        <v>10.91599643074873</v>
       </c>
       <c r="E2">
-        <v>12.59850687441594</v>
+        <v>14.39286264603528</v>
       </c>
       <c r="F2">
-        <v>63.38607928757249</v>
+        <v>64.55504733636519</v>
       </c>
       <c r="G2">
-        <v>2.069546457056989</v>
+        <v>2.120711557021983</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.63336250704678</v>
+        <v>10.50052561970008</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.78450645723322</v>
+        <v>14.09038280857689</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.49146064804268</v>
+        <v>11.0828662595896</v>
       </c>
       <c r="C3">
-        <v>10.78980582430853</v>
+        <v>5.689633745859625</v>
       </c>
       <c r="D3">
-        <v>9.57762998688106</v>
+        <v>10.47508614576689</v>
       </c>
       <c r="E3">
-        <v>11.82219840563118</v>
+        <v>13.47375694291886</v>
       </c>
       <c r="F3">
-        <v>59.5428806478878</v>
+        <v>61.0119569491174</v>
       </c>
       <c r="G3">
-        <v>2.083590692354009</v>
+        <v>2.132050687123433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.48482207371726</v>
+        <v>9.74756408233014</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.57121099402701</v>
+        <v>13.09505935209956</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63143259924083</v>
+        <v>10.50892130623054</v>
       </c>
       <c r="C4">
-        <v>10.23488013649643</v>
+        <v>5.40617712789416</v>
       </c>
       <c r="D4">
-        <v>9.285264299440477</v>
+        <v>10.19844907635659</v>
       </c>
       <c r="E4">
-        <v>11.33420885581022</v>
+        <v>12.89158381504697</v>
       </c>
       <c r="F4">
-        <v>57.1149126057914</v>
+        <v>58.76907890591164</v>
       </c>
       <c r="G4">
-        <v>2.092326882120656</v>
+        <v>2.139137778769944</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.74957471587713</v>
+        <v>9.264481729929097</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.79420622377886</v>
+        <v>12.45585682989477</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2718207150002</v>
+        <v>10.26868472265599</v>
       </c>
       <c r="C5">
-        <v>10.00325886690408</v>
+        <v>5.287997245748293</v>
       </c>
       <c r="D5">
-        <v>9.164884399886315</v>
+        <v>10.08424775726394</v>
       </c>
       <c r="E5">
-        <v>11.13253223161396</v>
+        <v>12.64992448768642</v>
       </c>
       <c r="F5">
-        <v>56.10838766880826</v>
+        <v>57.83848908153816</v>
       </c>
       <c r="G5">
-        <v>2.095920949269033</v>
+        <v>2.142060578896604</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.44213419110535</v>
+        <v>9.062268676762136</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.4692496920653</v>
+        <v>12.18815857004449</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.21154753883343</v>
+        <v>10.22840667351458</v>
       </c>
       <c r="C6">
-        <v>9.96446063205739</v>
+        <v>5.268209583264565</v>
       </c>
       <c r="D6">
-        <v>9.14482087414539</v>
+        <v>10.06519678329103</v>
       </c>
       <c r="E6">
-        <v>11.0988758613602</v>
+        <v>12.60953325309955</v>
       </c>
       <c r="F6">
-        <v>55.94022751183341</v>
+        <v>57.68297652253478</v>
       </c>
       <c r="G6">
-        <v>2.096519947105375</v>
+        <v>2.142548099491622</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.39060419100416</v>
+        <v>9.028364371182901</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.41478112169959</v>
+        <v>12.14326714346188</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62662011979095</v>
+        <v>10.50570725902729</v>
       </c>
       <c r="C7">
-        <v>10.23177891239652</v>
+        <v>5.40459424654977</v>
       </c>
       <c r="D7">
-        <v>9.283645819852563</v>
+        <v>10.19691483230714</v>
       </c>
       <c r="E7">
-        <v>11.33150029685512</v>
+        <v>12.88834247760054</v>
       </c>
       <c r="F7">
-        <v>57.1014072990699</v>
+        <v>58.75659526149531</v>
       </c>
       <c r="G7">
-        <v>2.092375208346343</v>
+        <v>2.139177051723929</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.74546046921485</v>
+        <v>9.26177645589091</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78985776759859</v>
+        <v>12.45227598351848</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37872271481844</v>
+        <v>11.67397475856709</v>
       </c>
       <c r="C8">
-        <v>11.36387209286594</v>
+        <v>5.983268081359251</v>
       </c>
       <c r="D8">
-        <v>9.88538788562213</v>
+        <v>10.76520462381924</v>
       </c>
       <c r="E8">
-        <v>12.33319048455775</v>
+        <v>14.0796805454208</v>
       </c>
       <c r="F8">
-        <v>62.07506242073882</v>
+        <v>63.34753578736981</v>
       </c>
       <c r="G8">
-        <v>2.074369025094647</v>
+        <v>2.124597505534454</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.24341072274506</v>
+        <v>10.24513002872042</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.37264282348202</v>
+        <v>13.75292020471367</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.54972855913481</v>
+        <v>13.77543987933566</v>
       </c>
       <c r="C9">
-        <v>13.43039129771895</v>
+        <v>7.042195552352347</v>
       </c>
       <c r="D9">
-        <v>11.02822016508821</v>
+        <v>11.83275719842151</v>
       </c>
       <c r="E9">
-        <v>14.20914141896073</v>
+        <v>16.35326472918925</v>
       </c>
       <c r="F9">
-        <v>71.29754251701323</v>
+        <v>71.80938917414603</v>
       </c>
       <c r="G9">
-        <v>2.03966566896511</v>
+        <v>2.096827741158237</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.95621093961053</v>
+        <v>12.01538323940421</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.23592521368208</v>
+        <v>16.08883623508978</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.74212374899741</v>
+        <v>15.21476714624749</v>
       </c>
       <c r="C10">
-        <v>14.87479372296354</v>
+        <v>7.782153434094333</v>
       </c>
       <c r="D10">
-        <v>11.8499151177346</v>
+        <v>12.59004578615386</v>
       </c>
       <c r="E10">
-        <v>15.54802728382476</v>
+        <v>18.02192656268794</v>
       </c>
       <c r="F10">
-        <v>77.78323128050889</v>
+        <v>77.70142862244131</v>
       </c>
       <c r="G10">
-        <v>2.014063698307783</v>
+        <v>2.076657032692514</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.83443742250909</v>
+        <v>13.22997995260854</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.21511141642622</v>
+        <v>17.68693812900229</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.71633168986173</v>
+        <v>15.84972949724064</v>
       </c>
       <c r="C11">
-        <v>15.52128212608997</v>
+        <v>8.11268264467301</v>
       </c>
       <c r="D11">
-        <v>12.22163345767184</v>
+        <v>12.92943981067934</v>
       </c>
       <c r="E11">
-        <v>16.20590663899625</v>
+        <v>18.75687926974374</v>
       </c>
       <c r="F11">
-        <v>80.6838653590394</v>
+        <v>80.31603855655462</v>
       </c>
       <c r="G11">
-        <v>2.002261833098447</v>
+        <v>2.067460546077844</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.66998646551225</v>
+        <v>13.76654357095911</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.09455374582415</v>
+        <v>18.39164402955547</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.08259708744935</v>
+        <v>16.08760988331824</v>
       </c>
       <c r="C12">
-        <v>15.76512941536407</v>
+        <v>8.23718344577067</v>
       </c>
       <c r="D12">
-        <v>12.36230871933488</v>
+        <v>13.05731941351194</v>
       </c>
       <c r="E12">
-        <v>16.45317058521794</v>
+        <v>19.03204244416115</v>
       </c>
       <c r="F12">
-        <v>81.77664713423516</v>
+        <v>81.29730418218628</v>
       </c>
       <c r="G12">
-        <v>1.997756762364425</v>
+        <v>2.063968157510737</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.98429241477304</v>
+        <v>13.96769163546948</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.42519448748429</v>
+        <v>18.65561863000506</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.00382071220495</v>
+        <v>16.03648729382208</v>
       </c>
       <c r="C13">
-        <v>15.71264533443741</v>
+        <v>8.210395767657056</v>
       </c>
       <c r="D13">
-        <v>12.33201160043556</v>
+        <v>13.02980502903734</v>
       </c>
       <c r="E13">
-        <v>16.39999257976676</v>
+        <v>18.97291546388178</v>
       </c>
       <c r="F13">
-        <v>81.5415183964807</v>
+        <v>81.08635180796303</v>
       </c>
       <c r="G13">
-        <v>1.99872885567765</v>
+        <v>2.064720866463911</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.91668325464191</v>
+        <v>13.92445687378809</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.35407997417655</v>
+        <v>18.59888953312668</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.74651323056981</v>
+        <v>15.86934973138428</v>
       </c>
       <c r="C14">
-        <v>15.54135931912964</v>
+        <v>8.12293737250079</v>
       </c>
       <c r="D14">
-        <v>12.23320719815636</v>
+        <v>12.9399727763533</v>
       </c>
       <c r="E14">
-        <v>16.22628361793151</v>
+        <v>18.77957817161738</v>
       </c>
       <c r="F14">
-        <v>80.7738716775763</v>
+        <v>80.39694058726828</v>
       </c>
       <c r="G14">
-        <v>2.001892006662285</v>
+        <v>2.067173466431338</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.69588271377428</v>
+        <v>13.78313135222533</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.12179957235322</v>
+        <v>18.41341713213126</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5885827826615</v>
+        <v>15.76664800604841</v>
       </c>
       <c r="C15">
-        <v>15.43633457951754</v>
+        <v>8.069286993240137</v>
       </c>
       <c r="D15">
-        <v>12.17268271096613</v>
+        <v>12.8848675710575</v>
       </c>
       <c r="E15">
-        <v>16.11965425703965</v>
+        <v>18.66075398731996</v>
       </c>
       <c r="F15">
-        <v>80.30298570897543</v>
+        <v>79.97352809803716</v>
       </c>
       <c r="G15">
-        <v>2.003824394531094</v>
+        <v>2.068674245600662</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.56038299508143</v>
+        <v>13.69630842744512</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.97923098092396</v>
+        <v>18.2994449260452</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.67804682401907</v>
+        <v>15.17289558078011</v>
       </c>
       <c r="C16">
-        <v>14.83237655770961</v>
+        <v>7.760447530205091</v>
       </c>
       <c r="D16">
-        <v>11.82559748947509</v>
+        <v>12.56777020054769</v>
       </c>
       <c r="E16">
-        <v>15.50474676499054</v>
+        <v>17.97343662052919</v>
       </c>
       <c r="F16">
-        <v>77.59278847629942</v>
+        <v>77.52928385027968</v>
       </c>
       <c r="G16">
-        <v>2.014830746714262</v>
+        <v>2.077257061193587</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.77950263849482</v>
+        <v>13.19461432004787</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.1572676352343</v>
+        <v>17.64046206515653</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.11398423556473</v>
+        <v>14.80376466611867</v>
       </c>
       <c r="C17">
-        <v>14.45952270957457</v>
+        <v>7.569567465413329</v>
       </c>
       <c r="D17">
-        <v>11.61227335396409</v>
+        <v>12.37199195073867</v>
       </c>
       <c r="E17">
-        <v>15.15659747459434</v>
+        <v>17.54582448079816</v>
       </c>
       <c r="F17">
-        <v>75.91839254372587</v>
+        <v>76.01336781054931</v>
       </c>
       <c r="G17">
-        <v>2.021534101306508</v>
+        <v>2.082512438334678</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.29602819858914</v>
+        <v>12.88292556563641</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.64807280462345</v>
+        <v>17.23070581579702</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.78732649799973</v>
+        <v>14.58956811532533</v>
       </c>
       <c r="C18">
-        <v>14.24403252234411</v>
+        <v>7.459191558835204</v>
       </c>
       <c r="D18">
-        <v>11.48936378760048</v>
+        <v>12.25889836979653</v>
       </c>
       <c r="E18">
-        <v>14.95776664309612</v>
+        <v>17.29758023481766</v>
       </c>
       <c r="F18">
-        <v>74.95052893442913</v>
+        <v>75.13521948563977</v>
       </c>
       <c r="G18">
-        <v>2.025376019177985</v>
+        <v>2.08553370954894</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.01612800012887</v>
+        <v>12.70213052624843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.35318703946616</v>
+        <v>16.99290613683138</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.67632518817191</v>
+        <v>14.51671368361317</v>
       </c>
       <c r="C19">
-        <v>14.17087828222905</v>
+        <v>7.42171347088723</v>
       </c>
       <c r="D19">
-        <v>11.44770692949113</v>
+        <v>12.22052079748948</v>
       </c>
       <c r="E19">
-        <v>14.89031366279447</v>
+        <v>17.21312608639572</v>
       </c>
       <c r="F19">
-        <v>74.62196330544396</v>
+        <v>74.83680729843704</v>
       </c>
       <c r="G19">
-        <v>2.026674850987305</v>
+        <v>2.086556599196455</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.92102937115683</v>
+        <v>12.64064809259155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.25298145066709</v>
+        <v>16.91201830394092</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17425530712376</v>
+        <v>14.84325218268718</v>
       </c>
       <c r="C20">
-        <v>14.49931700814611</v>
+        <v>7.589946270535595</v>
       </c>
       <c r="D20">
-        <v>11.63500257758261</v>
+        <v>12.39288271325197</v>
       </c>
       <c r="E20">
-        <v>15.19333580874031</v>
+        <v>17.59157965794301</v>
       </c>
       <c r="F20">
-        <v>76.09712137583705</v>
+        <v>76.17538095390945</v>
       </c>
       <c r="G20">
-        <v>2.020822023287848</v>
+        <v>2.081953194632154</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.3476789966294</v>
+        <v>12.91626091400081</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.70248140422706</v>
+        <v>17.27454216605575</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.82215641376655</v>
+        <v>15.91850928327949</v>
       </c>
       <c r="C21">
-        <v>15.59169134016906</v>
+        <v>8.148642185765144</v>
       </c>
       <c r="D21">
-        <v>12.2622288013523</v>
+        <v>12.96637522973358</v>
       </c>
       <c r="E21">
-        <v>16.27735266114033</v>
+        <v>18.83644863393385</v>
       </c>
       <c r="F21">
-        <v>80.99948655037794</v>
+        <v>80.5996711031712</v>
       </c>
       <c r="G21">
-        <v>2.000964010611415</v>
+        <v>2.06645340670215</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.76078864272251</v>
+        <v>13.82469511905692</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.19008513891023</v>
+        <v>18.4679702967433</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.8841501333564</v>
+        <v>16.60645695773673</v>
       </c>
       <c r="C22">
-        <v>16.30034770163545</v>
+        <v>8.51003778874909</v>
       </c>
       <c r="D22">
-        <v>12.67179828461149</v>
+        <v>13.33750929496243</v>
       </c>
       <c r="E22">
-        <v>16.99414544335846</v>
+        <v>19.63188278239119</v>
       </c>
       <c r="F22">
-        <v>84.17170303206521</v>
+        <v>83.44016462498973</v>
       </c>
       <c r="G22">
-        <v>1.987767607736301</v>
+        <v>2.056261814031208</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.67248439837682</v>
+        <v>14.40668506156664</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.14880035758114</v>
+        <v>19.23133008851308</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31845618191572</v>
+        <v>16.24053603152113</v>
       </c>
       <c r="C23">
-        <v>15.9223924082383</v>
+        <v>8.317418265005893</v>
       </c>
       <c r="D23">
-        <v>12.45314972076045</v>
+        <v>13.13972678166511</v>
       </c>
       <c r="E23">
-        <v>16.61237553381323</v>
+        <v>19.20888666917904</v>
       </c>
       <c r="F23">
-        <v>82.48091968402427</v>
+        <v>81.92855194662813</v>
       </c>
       <c r="G23">
-        <v>1.994835977184497</v>
+        <v>2.061709459614112</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.18674396537057</v>
+        <v>14.09704327970417</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.63811485529757</v>
+        <v>18.82531171656459</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.14701418886273</v>
+        <v>14.82540605892164</v>
       </c>
       <c r="C24">
-        <v>14.48132957049488</v>
+        <v>7.580735010515628</v>
       </c>
       <c r="D24">
-        <v>11.62472754119589</v>
+        <v>12.3834396820006</v>
       </c>
       <c r="E24">
-        <v>15.17672894918446</v>
+        <v>17.57090125494859</v>
       </c>
       <c r="F24">
-        <v>76.01633447367853</v>
+        <v>76.10215550064882</v>
       </c>
       <c r="G24">
-        <v>2.021143989937886</v>
+        <v>2.082206028562819</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.32433377136055</v>
+        <v>12.90119500883249</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.6778899956816</v>
+        <v>17.25473070717229</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.71797724534984</v>
+        <v>13.22618820034199</v>
       </c>
       <c r="C25">
-        <v>12.88592320698371</v>
+        <v>6.763064096366413</v>
       </c>
       <c r="D25">
-        <v>10.72267369873673</v>
+        <v>11.54888692468271</v>
       </c>
       <c r="E25">
-        <v>13.71064854783924</v>
+        <v>15.71546294858273</v>
       </c>
       <c r="F25">
-        <v>68.85696839491241</v>
+        <v>69.57828811489625</v>
       </c>
       <c r="G25">
-        <v>2.049033434133974</v>
+        <v>2.104278039920084</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.24429325239664</v>
+        <v>11.55240990542443</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.48499532703175</v>
+        <v>15.47866469157185</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.97733776779853</v>
+        <v>12.12456216823927</v>
       </c>
       <c r="C2">
-        <v>6.134657493739044</v>
+        <v>7.859623461302268</v>
       </c>
       <c r="D2">
-        <v>10.91599643074873</v>
+        <v>4.742568232419216</v>
       </c>
       <c r="E2">
-        <v>14.39286264603528</v>
+        <v>15.64496133669005</v>
       </c>
       <c r="F2">
-        <v>64.55504733636519</v>
+        <v>24.48147760663637</v>
       </c>
       <c r="G2">
-        <v>2.120711557021983</v>
+        <v>33.97938911418751</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.613408181041951</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.34351578626596</v>
       </c>
       <c r="K2">
-        <v>10.50052561970008</v>
+        <v>17.62551277640257</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.09038280857689</v>
+        <v>11.35733351036322</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.20791562059564</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.0828662595896</v>
+        <v>11.37692563500578</v>
       </c>
       <c r="C3">
-        <v>5.689633745859625</v>
+        <v>7.387519278580449</v>
       </c>
       <c r="D3">
-        <v>10.47508614576689</v>
+        <v>4.68385475193817</v>
       </c>
       <c r="E3">
-        <v>13.47375694291886</v>
+        <v>14.69134289962066</v>
       </c>
       <c r="F3">
-        <v>61.0119569491174</v>
+        <v>23.78765990678056</v>
       </c>
       <c r="G3">
-        <v>2.132050687123433</v>
+        <v>32.92691326680895</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.85928952734545</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.24558144006815</v>
       </c>
       <c r="K3">
-        <v>9.74756408233014</v>
+        <v>17.47899949219934</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.09505935209956</v>
+        <v>10.7267733450027</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.38330300887165</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.50892130623054</v>
+        <v>10.89233797110041</v>
       </c>
       <c r="C4">
-        <v>5.40617712789416</v>
+        <v>7.082426296058052</v>
       </c>
       <c r="D4">
-        <v>10.19844907635659</v>
+        <v>4.646355454383016</v>
       </c>
       <c r="E4">
-        <v>12.89158381504697</v>
+        <v>14.07463927125863</v>
       </c>
       <c r="F4">
-        <v>58.76907890591164</v>
+        <v>23.36661865340518</v>
       </c>
       <c r="G4">
-        <v>2.139137778769944</v>
+        <v>32.2862681771716</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.015293454238941</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.19029057489898</v>
       </c>
       <c r="K4">
-        <v>9.264481729929097</v>
+        <v>17.39769763154419</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.45585682989477</v>
+        <v>10.32011452176165</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.85165439846756</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.26868472265599</v>
+        <v>10.68845123067816</v>
       </c>
       <c r="C5">
-        <v>5.287997245748293</v>
+        <v>6.954289127575016</v>
       </c>
       <c r="D5">
-        <v>10.08424775726394</v>
+        <v>4.630716239353543</v>
       </c>
       <c r="E5">
-        <v>12.64992448768642</v>
+        <v>13.81550552103348</v>
       </c>
       <c r="F5">
-        <v>57.83848908153816</v>
+        <v>23.19646499941378</v>
       </c>
       <c r="G5">
-        <v>2.142060578896604</v>
+        <v>32.02687372813414</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.080156247448016</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.16895171750996</v>
       </c>
       <c r="K5">
-        <v>9.062268676762136</v>
+        <v>17.36668764310917</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.18815857004449</v>
+        <v>10.14954825541053</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.62871923146696</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.22840667351458</v>
+        <v>10.65420909493542</v>
       </c>
       <c r="C6">
-        <v>5.268209583264565</v>
+        <v>6.932782693248169</v>
       </c>
       <c r="D6">
-        <v>10.06519678329103</v>
+        <v>4.628097933505006</v>
       </c>
       <c r="E6">
-        <v>12.60953325309955</v>
+        <v>13.77200496941516</v>
       </c>
       <c r="F6">
-        <v>57.68297652253478</v>
+        <v>23.16830233034002</v>
       </c>
       <c r="G6">
-        <v>2.142548099491622</v>
+        <v>31.98391067191302</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.091005275933665</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.16547969341605</v>
       </c>
       <c r="K6">
-        <v>9.028364371182901</v>
+        <v>17.36166488026118</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.14326714346188</v>
+        <v>10.12093481317851</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.59132449888807</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.50570725902729</v>
+        <v>10.88961423216061</v>
       </c>
       <c r="C7">
-        <v>5.40459424654977</v>
+        <v>7.080713586426874</v>
       </c>
       <c r="D7">
-        <v>10.19691483230714</v>
+        <v>4.646145979104169</v>
       </c>
       <c r="E7">
-        <v>12.88834247760054</v>
+        <v>14.07117613873567</v>
       </c>
       <c r="F7">
-        <v>58.75659526149531</v>
+        <v>23.36431790074909</v>
       </c>
       <c r="G7">
-        <v>2.139177051723929</v>
+        <v>32.2827627509319</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.016162961743269</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.18999799657432</v>
       </c>
       <c r="K7">
-        <v>9.26177645589091</v>
+        <v>17.39727090742612</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.45227598351848</v>
+        <v>10.31783375987843</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.84867312828707</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.67397475856709</v>
+        <v>11.87207836089127</v>
       </c>
       <c r="C8">
-        <v>5.983268081359251</v>
+        <v>7.700008204079438</v>
       </c>
       <c r="D8">
-        <v>10.76520462381924</v>
+        <v>4.722628316095618</v>
       </c>
       <c r="E8">
-        <v>14.0796805454208</v>
+        <v>15.32263064410863</v>
       </c>
       <c r="F8">
-        <v>63.34753578736981</v>
+        <v>24.24132218859307</v>
       </c>
       <c r="G8">
-        <v>2.124597505534454</v>
+        <v>33.6154959037484</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.697158884761007</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.30872879297765</v>
       </c>
       <c r="K8">
-        <v>10.24513002872042</v>
+        <v>17.57316527828014</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.75292020471367</v>
+        <v>11.1439881317302</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.9288912018933</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77543987933566</v>
+        <v>13.59627415668932</v>
       </c>
       <c r="C9">
-        <v>7.042195552352347</v>
+        <v>8.793398664667729</v>
       </c>
       <c r="D9">
-        <v>11.83275719842151</v>
+        <v>4.860846558780413</v>
       </c>
       <c r="E9">
-        <v>16.35326472918925</v>
+        <v>17.52933473951091</v>
       </c>
       <c r="F9">
-        <v>71.80938917414603</v>
+        <v>25.99321000025238</v>
       </c>
       <c r="G9">
-        <v>2.096827741158237</v>
+        <v>36.26217722788579</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.99991443142741</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.58101655736061</v>
       </c>
       <c r="K9">
-        <v>12.01538323940421</v>
+        <v>17.98916111811153</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.08883623508978</v>
+        <v>12.60793018170306</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.84358960371368</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.21476714624749</v>
+        <v>14.77478081149125</v>
       </c>
       <c r="C10">
-        <v>7.782153434094333</v>
+        <v>9.513750370549188</v>
       </c>
       <c r="D10">
-        <v>12.59004578615386</v>
+        <v>4.9786341055429</v>
       </c>
       <c r="E10">
-        <v>18.02192656268794</v>
+        <v>18.44805441637378</v>
       </c>
       <c r="F10">
-        <v>77.70142862244131</v>
+        <v>27.05737358152181</v>
       </c>
       <c r="G10">
-        <v>2.076657032692514</v>
+        <v>37.79768891784627</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.376408552588953</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.72244315059887</v>
       </c>
       <c r="K10">
-        <v>13.22997995260854</v>
+        <v>18.17932010411234</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.68693812900229</v>
+        <v>13.6047301503623</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.85603474235008</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84972949724064</v>
+        <v>15.58170189556117</v>
       </c>
       <c r="C11">
-        <v>8.11268264467301</v>
+        <v>9.748231050942223</v>
       </c>
       <c r="D11">
-        <v>12.92943981067934</v>
+        <v>5.266283453171723</v>
       </c>
       <c r="E11">
-        <v>18.75687926974374</v>
+        <v>14.22854710227765</v>
       </c>
       <c r="F11">
-        <v>80.31603855655462</v>
+        <v>25.53092152380847</v>
       </c>
       <c r="G11">
-        <v>2.067460546077844</v>
+        <v>34.91904099198016</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.104687923732568</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.06932428263491</v>
       </c>
       <c r="K11">
-        <v>13.76654357095911</v>
+        <v>16.88854366479737</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.39164402955547</v>
+        <v>14.19146928798805</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.00298083532629</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.08760988331824</v>
+        <v>16.03109794600449</v>
       </c>
       <c r="C12">
-        <v>8.23718344577067</v>
+        <v>9.802339794199812</v>
       </c>
       <c r="D12">
-        <v>13.05731941351194</v>
+        <v>5.520862498287155</v>
       </c>
       <c r="E12">
-        <v>19.03204244416115</v>
+        <v>10.72498199380988</v>
       </c>
       <c r="F12">
-        <v>81.29730418218628</v>
+        <v>23.99413342064398</v>
       </c>
       <c r="G12">
-        <v>2.063968157510737</v>
+        <v>32.12756845563833</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.275313622777591</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.48670159700428</v>
       </c>
       <c r="K12">
-        <v>13.96769163546948</v>
+        <v>15.7645464980041</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.65561863000506</v>
+        <v>14.49042126968344</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.22164443207666</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03648729382208</v>
+        <v>16.2460672469711</v>
       </c>
       <c r="C13">
-        <v>8.210395767657056</v>
+        <v>9.722666284878244</v>
       </c>
       <c r="D13">
-        <v>13.02980502903734</v>
+        <v>5.759351906321569</v>
       </c>
       <c r="E13">
-        <v>18.97291546388178</v>
+        <v>7.818735107848742</v>
       </c>
       <c r="F13">
-        <v>81.08635180796303</v>
+        <v>22.32267120193129</v>
       </c>
       <c r="G13">
-        <v>2.064720866463911</v>
+        <v>29.17208552493132</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.552361451494559</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.921002759966974</v>
       </c>
       <c r="K13">
-        <v>13.92445687378809</v>
+        <v>14.70047596077562</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.59888953312668</v>
+        <v>14.59393820188489</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.34064662180007</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.86934973138428</v>
+        <v>16.29424441255546</v>
       </c>
       <c r="C14">
-        <v>8.12293737250079</v>
+        <v>9.605924823341212</v>
       </c>
       <c r="D14">
-        <v>12.9399727763533</v>
+        <v>5.920701834865313</v>
       </c>
       <c r="E14">
-        <v>18.77957817161738</v>
+        <v>6.585783686553615</v>
       </c>
       <c r="F14">
-        <v>80.39694058726828</v>
+        <v>21.08115072706958</v>
       </c>
       <c r="G14">
-        <v>2.067173466431338</v>
+        <v>27.01134145926305</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.481808538369586</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.536340058388193</v>
       </c>
       <c r="K14">
-        <v>13.78313135222533</v>
+        <v>13.99440031112296</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.41341713213126</v>
+        <v>14.57994082147441</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.962924690391359</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.76664800604841</v>
+        <v>16.2552182134819</v>
       </c>
       <c r="C15">
-        <v>8.069286993240137</v>
+        <v>9.54800177164249</v>
       </c>
       <c r="D15">
-        <v>12.8848675710575</v>
+        <v>5.951926833320756</v>
       </c>
       <c r="E15">
-        <v>18.66075398731996</v>
+        <v>6.446443726525327</v>
       </c>
       <c r="F15">
-        <v>79.97352809803716</v>
+        <v>20.75153766287929</v>
       </c>
       <c r="G15">
-        <v>2.068674245600662</v>
+        <v>26.45250706526175</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.693609823105372</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.447244331838963</v>
       </c>
       <c r="K15">
-        <v>13.69630842744512</v>
+        <v>13.83654648071447</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.2994449260452</v>
+        <v>14.53383501702093</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.602646361645762</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17289558078011</v>
+        <v>15.74874621607058</v>
       </c>
       <c r="C16">
-        <v>7.760447530205091</v>
+        <v>9.263601473671446</v>
       </c>
       <c r="D16">
-        <v>12.56777020054769</v>
+        <v>5.8502894464163</v>
       </c>
       <c r="E16">
-        <v>17.97343662052919</v>
+        <v>6.345027559152844</v>
       </c>
       <c r="F16">
-        <v>77.52928385027968</v>
+        <v>20.55936811970442</v>
       </c>
       <c r="G16">
-        <v>2.077257061193587</v>
+        <v>26.25538723237624</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.442056604003123</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.496137133760064</v>
       </c>
       <c r="K16">
-        <v>13.19461432004787</v>
+        <v>13.96485790450726</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.64046206515653</v>
+        <v>14.11174606527035</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.42670041712833</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.80376466611867</v>
+        <v>15.32362688718798</v>
       </c>
       <c r="C17">
-        <v>7.569567465413329</v>
+        <v>9.105696739931632</v>
       </c>
       <c r="D17">
-        <v>12.37199195073867</v>
+        <v>5.683075984096353</v>
       </c>
       <c r="E17">
-        <v>17.54582448079816</v>
+        <v>6.72770311636962</v>
       </c>
       <c r="F17">
-        <v>76.01336781054931</v>
+        <v>21.09274741875823</v>
       </c>
       <c r="G17">
-        <v>2.082512438334678</v>
+        <v>27.28786847952675</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.689638623446502</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.737672964986606</v>
       </c>
       <c r="K17">
-        <v>12.88292556563641</v>
+        <v>14.4337929137496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.23070581579702</v>
+        <v>13.78849943890068</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.05250346041987</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.58956811532533</v>
+        <v>14.92914260914703</v>
       </c>
       <c r="C18">
-        <v>7.459191558835204</v>
+        <v>9.044173107009257</v>
       </c>
       <c r="D18">
-        <v>12.25889836979653</v>
+        <v>5.453739567417825</v>
       </c>
       <c r="E18">
-        <v>17.29758023481766</v>
+        <v>8.576684090960772</v>
       </c>
       <c r="F18">
-        <v>75.13521948563977</v>
+        <v>22.30547742178988</v>
       </c>
       <c r="G18">
-        <v>2.08553370954894</v>
+        <v>29.49133353209219</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.452990837446413</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.17692009916348</v>
       </c>
       <c r="K18">
-        <v>12.70213052624843</v>
+        <v>15.26652978921223</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.99290613683138</v>
+        <v>13.52132009727177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.46011299400818</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.51671368361317</v>
+        <v>14.59846155748688</v>
       </c>
       <c r="C19">
-        <v>7.42171347088723</v>
+        <v>9.068248947586806</v>
       </c>
       <c r="D19">
-        <v>12.22052079748948</v>
+        <v>5.212680544619777</v>
       </c>
       <c r="E19">
-        <v>17.21312608639572</v>
+        <v>12.03286961331808</v>
       </c>
       <c r="F19">
-        <v>74.83680729843704</v>
+        <v>23.96553331728809</v>
       </c>
       <c r="G19">
-        <v>2.086556599196455</v>
+        <v>32.46322455922169</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.11346236872082</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.75239529013991</v>
       </c>
       <c r="K19">
-        <v>12.64064809259155</v>
+        <v>16.35987345664388</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.91201830394092</v>
+        <v>13.32668393107714</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.38894976776196</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.84325218268718</v>
+        <v>14.47541458711875</v>
       </c>
       <c r="C20">
-        <v>7.589946270535595</v>
+        <v>9.32906437921651</v>
       </c>
       <c r="D20">
-        <v>12.39288271325197</v>
+        <v>4.949092609808688</v>
       </c>
       <c r="E20">
-        <v>17.59157965794301</v>
+        <v>18.1864612140896</v>
       </c>
       <c r="F20">
-        <v>76.17538095390945</v>
+        <v>26.76597720874138</v>
       </c>
       <c r="G20">
-        <v>2.081953194632154</v>
+        <v>37.37355911410966</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.276520346499317</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.67972636067653</v>
       </c>
       <c r="K20">
-        <v>12.91626091400081</v>
+        <v>18.11875922729319</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.27454216605575</v>
+        <v>13.35044545295242</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.58422939302607</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.91850928327949</v>
+        <v>15.28801383059322</v>
       </c>
       <c r="C21">
-        <v>8.148642185765144</v>
+        <v>9.873301521927003</v>
       </c>
       <c r="D21">
-        <v>12.96637522973358</v>
+        <v>5.000403919402491</v>
       </c>
       <c r="E21">
-        <v>18.83644863393385</v>
+        <v>19.70647080979393</v>
       </c>
       <c r="F21">
-        <v>80.5996711031712</v>
+        <v>27.94659978744109</v>
       </c>
       <c r="G21">
-        <v>2.06645340670215</v>
+        <v>39.19759352910441</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.595938173988083</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.9268847318645</v>
       </c>
       <c r="K21">
-        <v>13.82469511905692</v>
+        <v>18.53109348251622</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.4679702967433</v>
+        <v>14.05761248624273</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.73881083323759</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.60645695773673</v>
+        <v>15.81503863043011</v>
       </c>
       <c r="C22">
-        <v>8.51003778874909</v>
+        <v>10.21105953333268</v>
       </c>
       <c r="D22">
-        <v>13.33750929496243</v>
+        <v>5.044492628661913</v>
       </c>
       <c r="E22">
-        <v>19.63188278239119</v>
+        <v>20.38701290047537</v>
       </c>
       <c r="F22">
-        <v>83.44016462498973</v>
+        <v>28.59791177213985</v>
       </c>
       <c r="G22">
-        <v>2.056261814031208</v>
+        <v>40.1738656341922</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.788777567454908</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.05040999943486</v>
       </c>
       <c r="K22">
-        <v>14.40668506156664</v>
+        <v>18.72700331704768</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.23133008851308</v>
+        <v>14.51139209258831</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.33166931987162</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.24053603152113</v>
+        <v>15.53573696024893</v>
       </c>
       <c r="C23">
-        <v>8.317418265005893</v>
+        <v>10.03198383759574</v>
       </c>
       <c r="D23">
-        <v>13.13972678166511</v>
+        <v>5.021096555162698</v>
       </c>
       <c r="E23">
-        <v>19.20888666917904</v>
+        <v>20.02621971370391</v>
       </c>
       <c r="F23">
-        <v>81.92855194662813</v>
+        <v>28.25033423152907</v>
       </c>
       <c r="G23">
-        <v>2.061709459614112</v>
+        <v>39.65299632561096</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.686149954799313</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.98401879816873</v>
       </c>
       <c r="K23">
-        <v>14.09704327970417</v>
+        <v>18.6215792997327</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.82531171656459</v>
+        <v>14.27079128771201</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.01735511335469</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.82540605892164</v>
+        <v>14.43419523754063</v>
       </c>
       <c r="C24">
-        <v>7.580735010515628</v>
+        <v>9.327444354934084</v>
       </c>
       <c r="D24">
-        <v>12.3834396820006</v>
+        <v>4.92955498219514</v>
       </c>
       <c r="E24">
-        <v>17.57090125494859</v>
+        <v>18.60624359935529</v>
       </c>
       <c r="F24">
-        <v>76.10215550064882</v>
+        <v>26.93362444631123</v>
       </c>
       <c r="G24">
-        <v>2.082206028562819</v>
+        <v>37.67696002835908</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.290795680066167</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.74263332811953</v>
       </c>
       <c r="K24">
-        <v>12.90119500883249</v>
+        <v>18.24099814848334</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.25473070717229</v>
+        <v>13.32454294175821</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.78063478938673</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.22618820034199</v>
+        <v>13.15143611290258</v>
       </c>
       <c r="C25">
-        <v>6.763064096366413</v>
+        <v>8.510571791553637</v>
       </c>
       <c r="D25">
-        <v>11.54888692468271</v>
+        <v>4.824749969526581</v>
       </c>
       <c r="E25">
-        <v>15.71546294858273</v>
+        <v>16.9587938721979</v>
       </c>
       <c r="F25">
-        <v>69.57828811489625</v>
+        <v>25.51681622390308</v>
       </c>
       <c r="G25">
-        <v>2.104278039920084</v>
+        <v>35.54408312601091</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.848878508593107</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.5029864851043</v>
       </c>
       <c r="K25">
-        <v>11.55240990542443</v>
+        <v>17.86868686665095</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.47866469157185</v>
+        <v>12.22876138653647</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>15.34769077517831</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.12456216823927</v>
+        <v>12.04177954229517</v>
       </c>
       <c r="C2">
-        <v>7.859623461302268</v>
+        <v>8.529677956984139</v>
       </c>
       <c r="D2">
-        <v>4.742568232419216</v>
+        <v>4.821984247362463</v>
       </c>
       <c r="E2">
-        <v>15.64496133669005</v>
+        <v>15.61204974710655</v>
       </c>
       <c r="F2">
-        <v>24.48147760663637</v>
+        <v>22.83075307367875</v>
       </c>
       <c r="G2">
-        <v>33.97938911418751</v>
+        <v>30.59747906560465</v>
       </c>
       <c r="H2">
-        <v>1.613408181041951</v>
+        <v>1.578348226459634</v>
       </c>
       <c r="J2">
-        <v>11.34351578626596</v>
+        <v>11.07819256687569</v>
       </c>
       <c r="K2">
-        <v>17.62551277640257</v>
+        <v>16.17971996751038</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.69408182582826</v>
       </c>
       <c r="M2">
-        <v>11.35733351036322</v>
+        <v>10.35848526354365</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.20791562059564</v>
+        <v>11.50559797120165</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.30638427599019</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.37692563500578</v>
+        <v>11.34396666850479</v>
       </c>
       <c r="C3">
-        <v>7.387519278580449</v>
+        <v>7.931892360429947</v>
       </c>
       <c r="D3">
-        <v>4.68385475193817</v>
+        <v>4.721661704902024</v>
       </c>
       <c r="E3">
-        <v>14.69134289962066</v>
+        <v>14.69332970811974</v>
       </c>
       <c r="F3">
-        <v>23.78765990678056</v>
+        <v>22.30525332690441</v>
       </c>
       <c r="G3">
-        <v>32.92691326680895</v>
+        <v>29.88052101633978</v>
       </c>
       <c r="H3">
-        <v>1.85928952734545</v>
+        <v>1.808315986770552</v>
       </c>
       <c r="J3">
-        <v>11.24558144006815</v>
+        <v>10.99526700898742</v>
       </c>
       <c r="K3">
-        <v>17.47899949219934</v>
+        <v>16.15747719478546</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.78561750158535</v>
       </c>
       <c r="M3">
-        <v>10.7267733450027</v>
+        <v>10.22475294265961</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.38330300887165</v>
+        <v>10.86823258935621</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.47937982039666</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.89233797110041</v>
+        <v>10.89209161357631</v>
       </c>
       <c r="C4">
-        <v>7.082426296058052</v>
+        <v>7.544215790740026</v>
       </c>
       <c r="D4">
-        <v>4.646355454383016</v>
+        <v>4.658348356618237</v>
       </c>
       <c r="E4">
-        <v>14.07463927125863</v>
+        <v>14.09952580541564</v>
       </c>
       <c r="F4">
-        <v>23.36661865340518</v>
+        <v>21.98778383510776</v>
       </c>
       <c r="G4">
-        <v>32.2862681771716</v>
+        <v>29.45254487995024</v>
       </c>
       <c r="H4">
-        <v>2.015293454238941</v>
+        <v>1.954347086080924</v>
       </c>
       <c r="J4">
-        <v>11.19029057489898</v>
+        <v>10.94612540082606</v>
       </c>
       <c r="K4">
-        <v>17.39769763154419</v>
+        <v>16.15035647592514</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.84305842228183</v>
       </c>
       <c r="M4">
-        <v>10.32011452176165</v>
+        <v>10.16656105088563</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.85165439846756</v>
+        <v>10.45721186697025</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.94610919420411</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68845123067816</v>
+        <v>10.7020976226346</v>
       </c>
       <c r="C5">
-        <v>6.954289127575016</v>
+        <v>7.381042198706525</v>
       </c>
       <c r="D5">
-        <v>4.630716239353543</v>
+        <v>4.632135560612801</v>
       </c>
       <c r="E5">
-        <v>13.81550552103348</v>
+        <v>13.85011958554954</v>
       </c>
       <c r="F5">
-        <v>23.19646499941378</v>
+        <v>21.85979559748522</v>
       </c>
       <c r="G5">
-        <v>32.02687372813414</v>
+        <v>29.28126610819529</v>
       </c>
       <c r="H5">
-        <v>2.080156247448016</v>
+        <v>2.015091205385684</v>
       </c>
       <c r="J5">
-        <v>11.16895171750996</v>
+        <v>10.92653766747795</v>
       </c>
       <c r="K5">
-        <v>17.36668764310917</v>
+        <v>16.14902795646682</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.86677701895728</v>
       </c>
       <c r="M5">
-        <v>10.14954825541053</v>
+        <v>10.1488601777331</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.62871923146696</v>
+        <v>10.28483911598346</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.7224849531321</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65420909493542</v>
+        <v>10.67019722341547</v>
       </c>
       <c r="C6">
-        <v>6.932782693248169</v>
+        <v>7.353633801174577</v>
       </c>
       <c r="D6">
-        <v>4.628097933505006</v>
+        <v>4.627758638893111</v>
       </c>
       <c r="E6">
-        <v>13.77200496941516</v>
+        <v>13.8082589842047</v>
       </c>
       <c r="F6">
-        <v>23.16830233034002</v>
+        <v>21.83862903927322</v>
       </c>
       <c r="G6">
-        <v>31.98391067191302</v>
+        <v>29.25301534514474</v>
       </c>
       <c r="H6">
-        <v>2.091005275933665</v>
+        <v>2.025252919370026</v>
       </c>
       <c r="J6">
-        <v>11.16547969341605</v>
+        <v>10.92331133202299</v>
       </c>
       <c r="K6">
-        <v>17.36166488026118</v>
+        <v>16.14890033485148</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.87073425239102</v>
       </c>
       <c r="M6">
-        <v>10.12093481317851</v>
+        <v>10.14628319199382</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.59132449888807</v>
+        <v>10.25592450424853</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.68497443299092</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.88961423216061</v>
+        <v>10.89071346402184</v>
       </c>
       <c r="C7">
-        <v>7.080713586426874</v>
+        <v>7.533289034957861</v>
       </c>
       <c r="D7">
-        <v>4.646145979104169</v>
+        <v>4.660961311679114</v>
       </c>
       <c r="E7">
-        <v>14.07117613873567</v>
+        <v>14.09604835229329</v>
       </c>
       <c r="F7">
-        <v>23.36431790074909</v>
+        <v>21.95735529149627</v>
       </c>
       <c r="G7">
-        <v>32.2827627509319</v>
+        <v>29.5124452552422</v>
       </c>
       <c r="H7">
-        <v>2.016162961743269</v>
+        <v>1.955677290355042</v>
       </c>
       <c r="J7">
-        <v>11.18999799657432</v>
+        <v>10.89570661787039</v>
       </c>
       <c r="K7">
-        <v>17.39727090742612</v>
+        <v>16.13423920311352</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.83002133607769</v>
       </c>
       <c r="M7">
-        <v>10.31783375987843</v>
+        <v>10.15522520543264</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.84867312828707</v>
+        <v>10.45294837894637</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.94222415567055</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.87207836089127</v>
+        <v>11.80970759483777</v>
       </c>
       <c r="C8">
-        <v>7.700008204079438</v>
+        <v>8.300971218649504</v>
       </c>
       <c r="D8">
-        <v>4.722628316095618</v>
+        <v>4.797861969956772</v>
       </c>
       <c r="E8">
-        <v>15.32263064410863</v>
+        <v>15.30112456006369</v>
       </c>
       <c r="F8">
-        <v>24.24132218859307</v>
+        <v>22.55656081534965</v>
       </c>
       <c r="G8">
-        <v>33.6154959037484</v>
+        <v>30.54939153159609</v>
       </c>
       <c r="H8">
-        <v>1.697158884761007</v>
+        <v>1.658244029963738</v>
       </c>
       <c r="J8">
-        <v>11.30872879297765</v>
+        <v>10.88622935295257</v>
       </c>
       <c r="K8">
-        <v>17.57316527828014</v>
+        <v>16.11825274917861</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.68419212699971</v>
       </c>
       <c r="M8">
-        <v>11.1439881317302</v>
+        <v>10.26851511797615</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.9288912018933</v>
+        <v>11.28391495761997</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.02379598324257</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.59627415668932</v>
+        <v>13.42081478284432</v>
       </c>
       <c r="C9">
-        <v>8.793398664667729</v>
+        <v>9.675316081206423</v>
       </c>
       <c r="D9">
-        <v>4.860846558780413</v>
+        <v>5.040937085471911</v>
       </c>
       <c r="E9">
-        <v>17.52933473951091</v>
+        <v>17.42800145339182</v>
       </c>
       <c r="F9">
-        <v>25.99321000025238</v>
+        <v>23.87549736522178</v>
       </c>
       <c r="G9">
-        <v>36.26217722788579</v>
+        <v>32.44624174005198</v>
       </c>
       <c r="H9">
-        <v>1.99991443142741</v>
+        <v>1.99981015900395</v>
       </c>
       <c r="J9">
-        <v>11.58101655736061</v>
+        <v>11.06345599358182</v>
       </c>
       <c r="K9">
-        <v>17.98916111811153</v>
+        <v>16.20074726197841</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.4567890604634</v>
       </c>
       <c r="M9">
-        <v>12.60793018170306</v>
+        <v>10.71972994053495</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.84358960371368</v>
+        <v>12.76234385222915</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.94278928956461</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.77478081149125</v>
+        <v>14.53419730235685</v>
       </c>
       <c r="C10">
-        <v>9.513750370549188</v>
+        <v>10.52190970563205</v>
       </c>
       <c r="D10">
-        <v>4.9786341055429</v>
+        <v>5.254572785233247</v>
       </c>
       <c r="E10">
-        <v>18.44805441637378</v>
+        <v>18.29532524276059</v>
       </c>
       <c r="F10">
-        <v>27.05737358152181</v>
+        <v>24.52092047399759</v>
       </c>
       <c r="G10">
-        <v>37.79768891784627</v>
+        <v>33.86083370798833</v>
       </c>
       <c r="H10">
-        <v>2.376408552588953</v>
+        <v>2.347553716405274</v>
       </c>
       <c r="J10">
-        <v>11.72244315059887</v>
+        <v>10.86756600177527</v>
       </c>
       <c r="K10">
-        <v>18.17932010411234</v>
+        <v>16.08682961149894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.14758421397528</v>
       </c>
       <c r="M10">
-        <v>13.6047301503623</v>
+        <v>10.98528087767247</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.85603474235008</v>
+        <v>13.75702879552352</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.95157866301382</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.58170189556117</v>
+        <v>15.35947653882007</v>
       </c>
       <c r="C11">
-        <v>9.748231050942223</v>
+        <v>10.60079490427349</v>
       </c>
       <c r="D11">
-        <v>5.266283453171723</v>
+        <v>5.637470627880571</v>
       </c>
       <c r="E11">
-        <v>14.22854710227765</v>
+        <v>14.06701006362983</v>
       </c>
       <c r="F11">
-        <v>25.53092152380847</v>
+        <v>22.86903280070087</v>
       </c>
       <c r="G11">
-        <v>34.91904099198016</v>
+        <v>31.99963529542014</v>
       </c>
       <c r="H11">
-        <v>3.104687923732568</v>
+        <v>3.076099559328006</v>
       </c>
       <c r="J11">
-        <v>11.06932428263491</v>
+        <v>9.812704897706823</v>
       </c>
       <c r="K11">
-        <v>16.88854366479737</v>
+        <v>14.83679331992781</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.19492337408951</v>
       </c>
       <c r="M11">
-        <v>14.19146928798805</v>
+        <v>10.10747802342509</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.00298083532629</v>
+        <v>14.31064250830462</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.07961980157553</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.03109794600449</v>
+        <v>15.8343905003443</v>
       </c>
       <c r="C12">
-        <v>9.802339794199812</v>
+        <v>10.5202685874381</v>
       </c>
       <c r="D12">
-        <v>5.520862498287155</v>
+        <v>5.932145764911725</v>
       </c>
       <c r="E12">
-        <v>10.72498199380988</v>
+        <v>10.56058408937156</v>
       </c>
       <c r="F12">
-        <v>23.99413342064398</v>
+        <v>21.40806300108287</v>
       </c>
       <c r="G12">
-        <v>32.12756845563833</v>
+        <v>29.88856712581588</v>
       </c>
       <c r="H12">
-        <v>4.275313622777591</v>
+        <v>4.254599139720702</v>
       </c>
       <c r="J12">
-        <v>10.48670159700428</v>
+        <v>9.175198180014418</v>
       </c>
       <c r="K12">
-        <v>15.7645464980041</v>
+        <v>13.88113315319398</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.53415057092536</v>
       </c>
       <c r="M12">
-        <v>14.49042126968344</v>
+        <v>9.344711290893377</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.22164443207666</v>
+        <v>14.58605699447063</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.28522770345447</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.2460672469711</v>
+        <v>16.07888494594835</v>
       </c>
       <c r="C13">
-        <v>9.722666284878244</v>
+        <v>10.3267022034585</v>
       </c>
       <c r="D13">
-        <v>5.759351906321569</v>
+        <v>6.15711166715848</v>
       </c>
       <c r="E13">
-        <v>7.818735107848742</v>
+        <v>7.665896864328153</v>
       </c>
       <c r="F13">
-        <v>22.32267120193129</v>
+        <v>20.03646676278415</v>
       </c>
       <c r="G13">
-        <v>29.17208552493132</v>
+        <v>27.26317349933255</v>
       </c>
       <c r="H13">
-        <v>5.552361451494559</v>
+        <v>5.539183693412201</v>
       </c>
       <c r="J13">
-        <v>9.921002759966974</v>
+        <v>8.859606676786894</v>
       </c>
       <c r="K13">
-        <v>14.70047596077562</v>
+        <v>13.12056319195239</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.05475158754581</v>
       </c>
       <c r="M13">
-        <v>14.59393820188489</v>
+        <v>8.654721958782732</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.34064662180007</v>
+        <v>14.67505872991834</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.39580759496703</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.29424441255546</v>
+        <v>16.14957142118212</v>
       </c>
       <c r="C14">
-        <v>9.605924823341212</v>
+        <v>10.13728671825812</v>
       </c>
       <c r="D14">
-        <v>5.920701834865313</v>
+        <v>6.282748265048961</v>
       </c>
       <c r="E14">
-        <v>6.585783686553615</v>
+        <v>6.464596925477705</v>
       </c>
       <c r="F14">
-        <v>21.08115072706958</v>
+        <v>19.1040605459891</v>
       </c>
       <c r="G14">
-        <v>27.01134145926305</v>
+        <v>25.18652017379456</v>
       </c>
       <c r="H14">
-        <v>6.481808538369586</v>
+        <v>6.472986792173996</v>
       </c>
       <c r="J14">
-        <v>9.536340058388193</v>
+        <v>8.756966673370723</v>
       </c>
       <c r="K14">
-        <v>13.99440031112296</v>
+        <v>12.67735695907376</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.79364134843827</v>
       </c>
       <c r="M14">
-        <v>14.57994082147441</v>
+        <v>8.210268512042369</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.962924690391359</v>
+        <v>14.65447923023527</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.01383765401615</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.2552182134819</v>
+        <v>16.11708010639879</v>
       </c>
       <c r="C15">
-        <v>9.54800177164249</v>
+        <v>10.06457564471127</v>
       </c>
       <c r="D15">
-        <v>5.951926833320756</v>
+        <v>6.295331311976065</v>
       </c>
       <c r="E15">
-        <v>6.446443726525327</v>
+        <v>6.341234451406609</v>
       </c>
       <c r="F15">
-        <v>20.75153766287929</v>
+        <v>18.89144376830707</v>
       </c>
       <c r="G15">
-        <v>26.45250706526175</v>
+        <v>24.5879560080805</v>
       </c>
       <c r="H15">
-        <v>6.693609823105372</v>
+        <v>6.686105566176632</v>
       </c>
       <c r="J15">
-        <v>9.447244331838963</v>
+        <v>8.7795317366111</v>
       </c>
       <c r="K15">
-        <v>13.83654648071447</v>
+        <v>12.60336223663987</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.75659081176776</v>
       </c>
       <c r="M15">
-        <v>14.53383501702093</v>
+        <v>8.11784323937065</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.602646361645762</v>
+        <v>14.60856229984423</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.653375666075394</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74874621607058</v>
+        <v>15.6222655224581</v>
       </c>
       <c r="C16">
-        <v>9.263601473671446</v>
+        <v>9.802033756659961</v>
       </c>
       <c r="D16">
-        <v>5.8502894464163</v>
+        <v>6.115048435679235</v>
       </c>
       <c r="E16">
-        <v>6.345027559152844</v>
+        <v>6.282883992383526</v>
       </c>
       <c r="F16">
-        <v>20.55936811970442</v>
+        <v>19.04391895268382</v>
       </c>
       <c r="G16">
-        <v>26.25538723237624</v>
+        <v>23.90813383755246</v>
       </c>
       <c r="H16">
-        <v>6.442056604003123</v>
+        <v>6.444421485974421</v>
       </c>
       <c r="J16">
-        <v>9.496137133760064</v>
+        <v>9.210866945918999</v>
       </c>
       <c r="K16">
-        <v>13.96485790450726</v>
+        <v>12.90129492002329</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.9962041833433</v>
       </c>
       <c r="M16">
-        <v>14.11174606527035</v>
+        <v>8.254105137791992</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.42670041712833</v>
+        <v>14.20268239724923</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.485536000459669</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.32362688718798</v>
+        <v>15.19595044345603</v>
       </c>
       <c r="C17">
-        <v>9.105696739931632</v>
+        <v>9.691416454313501</v>
       </c>
       <c r="D17">
-        <v>5.683075984096353</v>
+        <v>5.91638483945693</v>
       </c>
       <c r="E17">
-        <v>6.72770311636962</v>
+        <v>6.670679217386116</v>
       </c>
       <c r="F17">
-        <v>21.09274741875823</v>
+        <v>19.63898487502315</v>
       </c>
       <c r="G17">
-        <v>27.28786847952675</v>
+        <v>24.6030231816836</v>
       </c>
       <c r="H17">
-        <v>5.689638623446502</v>
+        <v>5.690719801483294</v>
       </c>
       <c r="J17">
-        <v>9.737672964986606</v>
+        <v>9.576672528885634</v>
       </c>
       <c r="K17">
-        <v>14.4337929137496</v>
+        <v>13.35323916810089</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.32639596685784</v>
       </c>
       <c r="M17">
-        <v>13.78849943890068</v>
+        <v>8.575143939946875</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.05250346041987</v>
+        <v>13.89349569095833</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.11920380100755</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.92914260914703</v>
+        <v>14.7863504205816</v>
       </c>
       <c r="C18">
-        <v>9.044173107009257</v>
+        <v>9.719334348996634</v>
       </c>
       <c r="D18">
-        <v>5.453739567417825</v>
+        <v>5.678885776101862</v>
       </c>
       <c r="E18">
-        <v>8.576684090960772</v>
+        <v>8.502234062219502</v>
       </c>
       <c r="F18">
-        <v>22.30547742178988</v>
+        <v>20.73168202669908</v>
       </c>
       <c r="G18">
-        <v>29.49133353209219</v>
+        <v>26.42180984468215</v>
       </c>
       <c r="H18">
-        <v>4.452990837446413</v>
+        <v>4.452020192393438</v>
       </c>
       <c r="J18">
-        <v>10.17692009916348</v>
+        <v>10.00349907237781</v>
       </c>
       <c r="K18">
-        <v>15.26652978921223</v>
+        <v>14.03536272924201</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.81128591354202</v>
       </c>
       <c r="M18">
-        <v>13.52132009727177</v>
+        <v>9.115971103803748</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.46011299400818</v>
+        <v>13.64277477603542</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.53650450698436</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59846155748688</v>
+        <v>14.42919228822229</v>
       </c>
       <c r="C19">
-        <v>9.068248947586806</v>
+        <v>9.86492522382361</v>
       </c>
       <c r="D19">
-        <v>5.212680544619777</v>
+        <v>5.437566689271072</v>
       </c>
       <c r="E19">
-        <v>12.03286961331808</v>
+        <v>11.93554706173247</v>
       </c>
       <c r="F19">
-        <v>23.96553331728809</v>
+        <v>22.15785249044797</v>
       </c>
       <c r="G19">
-        <v>32.46322455922169</v>
+        <v>28.94852605820035</v>
       </c>
       <c r="H19">
-        <v>3.11346236872082</v>
+        <v>3.110444326643142</v>
       </c>
       <c r="J19">
-        <v>10.75239529013991</v>
+        <v>10.48650992320554</v>
       </c>
       <c r="K19">
-        <v>16.35987345664388</v>
+        <v>14.88862312929023</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.41284294512697</v>
       </c>
       <c r="M19">
-        <v>13.32668393107714</v>
+        <v>9.816553216020401</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.38894976776196</v>
+        <v>13.46561538536961</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.4759332095513</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.47541458711875</v>
+        <v>14.24820200775534</v>
       </c>
       <c r="C20">
-        <v>9.32906437921651</v>
+        <v>10.32867870088279</v>
       </c>
       <c r="D20">
-        <v>4.949092609808688</v>
+        <v>5.188711271749134</v>
       </c>
       <c r="E20">
-        <v>18.1864612140896</v>
+        <v>18.0473021487462</v>
       </c>
       <c r="F20">
-        <v>26.76597720874138</v>
+        <v>24.42989189616791</v>
       </c>
       <c r="G20">
-        <v>37.37355911410966</v>
+        <v>33.26815142276428</v>
       </c>
       <c r="H20">
-        <v>2.276520346499317</v>
+        <v>2.256590718510158</v>
       </c>
       <c r="J20">
-        <v>11.67972636067653</v>
+        <v>11.08051260697543</v>
       </c>
       <c r="K20">
-        <v>18.11875922729319</v>
+        <v>16.16198613653634</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.26083952863534</v>
       </c>
       <c r="M20">
-        <v>13.35044545295242</v>
+        <v>10.94886013845676</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.58422939302607</v>
+        <v>13.50878893504991</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.6833192027641</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28801383059322</v>
+        <v>15.02433363653649</v>
       </c>
       <c r="C21">
-        <v>9.873301521927003</v>
+        <v>10.86667349356535</v>
       </c>
       <c r="D21">
-        <v>5.000403919402491</v>
+        <v>5.369391100393367</v>
       </c>
       <c r="E21">
-        <v>19.70647080979393</v>
+        <v>19.52577679069032</v>
       </c>
       <c r="F21">
-        <v>27.94659978744109</v>
+        <v>24.77381354791779</v>
       </c>
       <c r="G21">
-        <v>39.19759352910441</v>
+        <v>35.96881265023845</v>
       </c>
       <c r="H21">
-        <v>2.595938173988083</v>
+        <v>2.545739361307807</v>
       </c>
       <c r="J21">
-        <v>11.9268847318645</v>
+        <v>10.19696812457196</v>
       </c>
       <c r="K21">
-        <v>18.53109348251622</v>
+        <v>15.99888717214678</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.9703761116911</v>
       </c>
       <c r="M21">
-        <v>14.05761248624273</v>
+        <v>11.10794631265997</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.73881083323759</v>
+        <v>14.18899713861887</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.82331213970258</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.81503863043011</v>
+        <v>15.53203089644504</v>
       </c>
       <c r="C22">
-        <v>10.21105953333268</v>
+        <v>11.18403691192335</v>
       </c>
       <c r="D22">
-        <v>5.044492628661913</v>
+        <v>5.505676765060963</v>
       </c>
       <c r="E22">
-        <v>20.38701290047537</v>
+        <v>20.18202058767366</v>
       </c>
       <c r="F22">
-        <v>28.59791177213985</v>
+        <v>24.87346293224657</v>
       </c>
       <c r="G22">
-        <v>40.1738656341922</v>
+        <v>37.62585149317967</v>
       </c>
       <c r="H22">
-        <v>2.788777567454908</v>
+        <v>2.71945629032182</v>
       </c>
       <c r="J22">
-        <v>12.05040999943486</v>
+        <v>9.572197782103464</v>
       </c>
       <c r="K22">
-        <v>18.72700331704768</v>
+        <v>15.8151108722013</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.72948532000711</v>
       </c>
       <c r="M22">
-        <v>14.51139209258831</v>
+        <v>11.1560229561044</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.33166931987162</v>
+        <v>14.62310601031494</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.40518239570321</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.53573696024893</v>
+        <v>15.26040191822625</v>
       </c>
       <c r="C23">
-        <v>10.03198383759574</v>
+        <v>11.03257110925497</v>
       </c>
       <c r="D23">
-        <v>5.021096555162698</v>
+        <v>5.424201419067346</v>
       </c>
       <c r="E23">
-        <v>20.02621971370391</v>
+        <v>19.8339167080823</v>
       </c>
       <c r="F23">
-        <v>28.25033423152907</v>
+        <v>24.88404893621915</v>
       </c>
       <c r="G23">
-        <v>39.65299632561096</v>
+        <v>36.59480690454787</v>
       </c>
       <c r="H23">
-        <v>2.686149954799313</v>
+        <v>2.627854417988794</v>
       </c>
       <c r="J23">
-        <v>11.98401879816873</v>
+        <v>10.01002361424655</v>
       </c>
       <c r="K23">
-        <v>18.6215792997327</v>
+        <v>15.95190448718312</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.88373755016093</v>
       </c>
       <c r="M23">
-        <v>14.27079128771201</v>
+        <v>11.16212852235542</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.01735511335469</v>
+        <v>14.39666192283021</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.09851312195929</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.43419523754063</v>
+        <v>14.20440222809646</v>
       </c>
       <c r="C24">
-        <v>9.327444354934084</v>
+        <v>10.33941760855717</v>
       </c>
       <c r="D24">
-        <v>4.92955498219514</v>
+        <v>5.165600336476698</v>
       </c>
       <c r="E24">
-        <v>18.60624359935529</v>
+        <v>18.46586676308006</v>
       </c>
       <c r="F24">
-        <v>26.93362444631123</v>
+        <v>24.57834430872913</v>
       </c>
       <c r="G24">
-        <v>37.67696002835908</v>
+        <v>33.51925380670949</v>
       </c>
       <c r="H24">
-        <v>2.290795680066167</v>
+        <v>2.270590846295729</v>
       </c>
       <c r="J24">
-        <v>11.74263332811953</v>
+        <v>11.14048910825586</v>
       </c>
       <c r="K24">
-        <v>18.24099814848334</v>
+        <v>16.26181572755043</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.3342799666141</v>
       </c>
       <c r="M24">
-        <v>13.32454294175821</v>
+        <v>11.02611848393181</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.78063478938673</v>
+        <v>13.48457962066763</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.88079548953108</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.15143611290258</v>
+        <v>13.00358350871372</v>
       </c>
       <c r="C25">
-        <v>8.510571791553637</v>
+        <v>9.331361142361329</v>
       </c>
       <c r="D25">
-        <v>4.824749969526581</v>
+        <v>4.97242702365793</v>
       </c>
       <c r="E25">
-        <v>16.9587938721979</v>
+        <v>16.878144520719</v>
       </c>
       <c r="F25">
-        <v>25.51681622390308</v>
+        <v>23.55253453627406</v>
       </c>
       <c r="G25">
-        <v>35.54408312601091</v>
+        <v>31.84042734561629</v>
       </c>
       <c r="H25">
-        <v>1.848878508593107</v>
+        <v>1.859569105219999</v>
       </c>
       <c r="J25">
-        <v>11.5029864851043</v>
+        <v>11.08204000665893</v>
       </c>
       <c r="K25">
-        <v>17.86868686665095</v>
+        <v>16.19400716468281</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.53347916339767</v>
       </c>
       <c r="M25">
-        <v>12.22876138653647</v>
+        <v>10.59526011427362</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.34769077517831</v>
+        <v>12.38193686135112</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.44705785986864</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
